--- a/data/F1Penalties.xlsx
+++ b/data/F1Penalties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce0ff7b57b908ca8/Desktop/F1 Notebooks/penaltyDashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37F5A6FD-68A1-49CA-8A46-44A4063429BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{37F5A6FD-68A1-49CA-8A46-44A4063429BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB99C4A3-281F-4F68-8CCC-EA810BA5EF20}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="2" r:id="rId1"/>
@@ -22236,14 +22236,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="5.77734375" customWidth="1"/>
     <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
@@ -26888,7 +26889,7 @@
         <v>51</v>
       </c>
       <c r="G130" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H130" t="s">
         <v>130</v>
@@ -30053,8 +30054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="E255" sqref="E255"/>
     </sheetView>

--- a/data/F1Penalties.xlsx
+++ b/data/F1Penalties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce0ff7b57b908ca8/Desktop/F1 Notebooks/penaltyDashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{37F5A6FD-68A1-49CA-8A46-44A4063429BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB99C4A3-281F-4F68-8CCC-EA810BA5EF20}"/>
+  <xr:revisionPtr revIDLastSave="506" documentId="8_{37F5A6FD-68A1-49CA-8A46-44A4063429BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B84FF872-5154-475B-A4B0-CE7FC15669CE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8725" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9162" uniqueCount="470">
   <si>
     <t>Year</t>
   </si>
@@ -1411,13 +1411,37 @@
   </si>
   <si>
     <t>Felix Holter, Mathew Selley, Enrique Bernoldi, Steve Pence</t>
+  </si>
+  <si>
+    <t>Starting Grid Infringement</t>
+  </si>
+  <si>
+    <t>Drying of Grid Box</t>
+  </si>
+  <si>
+    <t>Accident, no driver to blame</t>
+  </si>
+  <si>
+    <t>Pierre Gasly, Romain Grosjean, Max Verstappen</t>
+  </si>
+  <si>
+    <t>Kimi Raikkonen, Romain Grosjean, Max Verstappen</t>
+  </si>
+  <si>
+    <t>Kimi Raikkonen, Pierre Gasly, Max Verstappen</t>
+  </si>
+  <si>
+    <t>Pierre Gasly, Romain Grosjean, Kimi Raikkonen</t>
+  </si>
+  <si>
+    <t>First Lap Incident</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1429,6 +1453,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1489,6 +1519,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1778,12 +1812,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+      <selection pane="bottomLeft" activeCell="M140" sqref="M140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2013,31 +2047,19 @@
         <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="P6" t="s">
         <v>419</v>
@@ -2054,31 +2076,19 @@
         <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="P7" t="s">
         <v>419</v>
@@ -2095,25 +2105,19 @@
         <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
+        <v>288</v>
       </c>
       <c r="P8" t="s">
         <v>419</v>
@@ -2130,22 +2134,31 @@
         <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>116</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
       </c>
       <c r="P9" t="s">
         <v>419</v>
@@ -2156,37 +2169,40 @@
         <v>2020</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
+        <v>80</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -2194,37 +2210,34 @@
         <v>2020</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="M11">
         <v>5</v>
       </c>
       <c r="P11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -2232,34 +2245,34 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
         <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" t="s">
-        <v>119</v>
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
+        <v>288</v>
+      </c>
+      <c r="O12" t="s">
+        <v>293</v>
       </c>
       <c r="P12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -2267,34 +2280,31 @@
         <v>2020</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2302,31 +2312,31 @@
         <v>2020</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>462</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>463</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>288</v>
       </c>
       <c r="P14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -2334,34 +2344,31 @@
         <v>2020</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
+        <v>288</v>
       </c>
       <c r="P15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -2369,40 +2376,37 @@
         <v>2020</v>
       </c>
       <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
       <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16" t="s">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -2410,40 +2414,37 @@
         <v>2020</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
         <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
-      <c r="N17">
-        <v>2</v>
-      </c>
       <c r="P17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -2451,37 +2452,34 @@
         <v>2020</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
         <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2489,13 +2487,13 @@
         <v>2020</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
         <v>39</v>
@@ -2504,19 +2502,19 @@
         <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
       </c>
       <c r="P19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2524,34 +2522,31 @@
         <v>2020</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="J20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2559,40 +2554,34 @@
         <v>2020</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2600,40 +2589,28 @@
         <v>2020</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="P22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2641,31 +2618,31 @@
         <v>2020</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" t="s">
-        <v>132</v>
+        <v>56</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>84</v>
+        <v>288</v>
       </c>
       <c r="P23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2673,31 +2650,28 @@
         <v>2020</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>288</v>
       </c>
       <c r="P24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2705,37 +2679,40 @@
         <v>2020</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>320</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J25" t="s">
-        <v>83</v>
-      </c>
-      <c r="K25">
+        <v>80</v>
+      </c>
+      <c r="M25">
         <v>5</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>139</v>
       </c>
       <c r="P25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2743,25 +2720,28 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
       </c>
       <c r="J26" t="s">
         <v>83</v>
@@ -2770,10 +2750,10 @@
         <v>5</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2781,31 +2761,37 @@
         <v>2020</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
         <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J27" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2813,31 +2799,34 @@
         <v>2020</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
         <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>123</v>
+        <v>270</v>
       </c>
       <c r="H28" t="s">
-        <v>132</v>
+        <v>122</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2845,34 +2834,34 @@
         <v>2020</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J29" t="s">
-        <v>92</v>
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>200</v>
       </c>
       <c r="P29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2880,31 +2869,40 @@
         <v>2020</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s">
-        <v>132</v>
+        <v>56</v>
+      </c>
+      <c r="I30" t="s">
+        <v>37</v>
       </c>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2912,31 +2910,40 @@
         <v>2020</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>62</v>
+      </c>
+      <c r="I31" t="s">
+        <v>111</v>
       </c>
       <c r="J31" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
       </c>
       <c r="P31" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2944,34 +2951,31 @@
         <v>2020</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="J32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2979,37 +2983,31 @@
         <v>2020</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
         <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="J33" t="s">
-        <v>83</v>
-      </c>
-      <c r="K33">
-        <v>5</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -3017,34 +3015,37 @@
         <v>2020</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
         <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>320</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="J34" t="s">
-        <v>321</v>
+        <v>83</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -3052,34 +3053,34 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" t="s">
-        <v>133</v>
+        <v>57</v>
+      </c>
+      <c r="I35" t="s">
+        <v>30</v>
       </c>
       <c r="J35" t="s">
-        <v>321</v>
-      </c>
-      <c r="N35">
-        <v>2</v>
+        <v>288</v>
+      </c>
+      <c r="O35" t="s">
+        <v>464</v>
       </c>
       <c r="P35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -3087,31 +3088,34 @@
         <v>2020</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s">
-        <v>123</v>
-      </c>
-      <c r="H36" t="s">
-        <v>132</v>
+        <v>57</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
       </c>
       <c r="J36" t="s">
-        <v>84</v>
+        <v>288</v>
+      </c>
+      <c r="O36" t="s">
+        <v>464</v>
       </c>
       <c r="P36" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -3119,31 +3123,31 @@
         <v>2020</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>123</v>
-      </c>
-      <c r="H37" t="s">
-        <v>132</v>
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P37" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -3151,34 +3155,31 @@
         <v>2020</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
       </c>
       <c r="J38" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38">
-        <v>800</v>
+        <v>288</v>
       </c>
       <c r="P38" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -3186,34 +3187,37 @@
         <v>2020</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J39" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39">
-        <v>200</v>
+        <v>83</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -3221,34 +3225,31 @@
         <v>2020</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="J40" t="s">
-        <v>10</v>
-      </c>
-      <c r="L40">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="P40" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -3256,34 +3257,31 @@
         <v>2020</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="J41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L41">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -3291,10 +3289,10 @@
         <v>2020</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
@@ -3303,25 +3301,22 @@
         <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
       </c>
       <c r="J42" t="s">
-        <v>80</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -3329,37 +3324,31 @@
         <v>2020</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="G43" t="s">
-        <v>124</v>
-      </c>
-      <c r="H43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J43" t="s">
-        <v>83</v>
-      </c>
-      <c r="K43">
-        <v>5</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
+        <v>288</v>
+      </c>
+      <c r="O43" t="s">
+        <v>140</v>
       </c>
       <c r="P43" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -3367,34 +3356,31 @@
         <v>2020</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="J44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44">
-        <v>1000</v>
+        <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3402,34 +3388,31 @@
         <v>2020</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="J45" t="s">
-        <v>10</v>
-      </c>
-      <c r="L45">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3437,34 +3420,28 @@
         <v>2020</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
         <v>51</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
-      </c>
-      <c r="H46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J46" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46">
-        <v>1000</v>
+        <v>288</v>
       </c>
       <c r="P46" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3472,34 +3449,28 @@
         <v>2020</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s">
-        <v>117</v>
-      </c>
-      <c r="H47" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
-      </c>
-      <c r="M47">
-        <v>5</v>
+        <v>288</v>
       </c>
       <c r="P47" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3507,34 +3478,28 @@
         <v>2020</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>117</v>
-      </c>
-      <c r="H48" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
-      </c>
-      <c r="M48">
-        <v>5</v>
+        <v>288</v>
       </c>
       <c r="P48" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3542,37 +3507,28 @@
         <v>2020</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s">
-        <v>125</v>
-      </c>
-      <c r="H49" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="J49" t="s">
-        <v>85</v>
-      </c>
-      <c r="K49">
-        <v>5</v>
-      </c>
-      <c r="O49" t="s">
-        <v>140</v>
+        <v>288</v>
       </c>
       <c r="P49" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -3580,37 +3536,28 @@
         <v>2020</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>125</v>
-      </c>
-      <c r="H50" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="J50" t="s">
-        <v>85</v>
-      </c>
-      <c r="K50">
-        <v>5</v>
-      </c>
-      <c r="O50" t="s">
-        <v>140</v>
+        <v>288</v>
       </c>
       <c r="P50" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -3618,37 +3565,28 @@
         <v>2020</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
-      </c>
-      <c r="H51" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="J51" t="s">
-        <v>83</v>
-      </c>
-      <c r="K51">
-        <v>5</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="P51" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -3656,37 +3594,28 @@
         <v>2020</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s">
         <v>49</v>
       </c>
       <c r="G52" t="s">
-        <v>126</v>
-      </c>
-      <c r="H52" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="J52" t="s">
-        <v>83</v>
-      </c>
-      <c r="K52">
-        <v>5</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="P52" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3694,40 +3623,28 @@
         <v>2020</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
         <v>49</v>
       </c>
       <c r="G53" t="s">
-        <v>57</v>
-      </c>
-      <c r="H53" t="s">
-        <v>57</v>
-      </c>
-      <c r="I53" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
-      </c>
-      <c r="K53">
-        <v>10</v>
-      </c>
-      <c r="N53">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="P53" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -3735,13 +3652,13 @@
         <v>2020</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E54" t="s">
         <v>40</v>
@@ -3752,23 +3669,14 @@
       <c r="G54" t="s">
         <v>57</v>
       </c>
-      <c r="H54" t="s">
-        <v>57</v>
-      </c>
       <c r="I54" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J54" t="s">
-        <v>83</v>
-      </c>
-      <c r="K54">
-        <v>5</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="P54" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -3776,34 +3684,28 @@
         <v>2020</v>
       </c>
       <c r="B55">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s">
-        <v>61</v>
-      </c>
-      <c r="H55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J55" t="s">
-        <v>10</v>
-      </c>
-      <c r="L55">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="P55" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -3811,31 +3713,34 @@
         <v>2020</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="H56" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="J56" t="s">
-        <v>92</v>
+        <v>10</v>
+      </c>
+      <c r="L56">
+        <v>200</v>
       </c>
       <c r="P56" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -3843,31 +3748,31 @@
         <v>2020</v>
       </c>
       <c r="B57">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s">
-        <v>124</v>
-      </c>
-      <c r="H57" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="I57" t="s">
+        <v>22</v>
       </c>
       <c r="J57" t="s">
-        <v>92</v>
+        <v>288</v>
       </c>
       <c r="P57" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -3875,34 +3780,37 @@
         <v>2020</v>
       </c>
       <c r="B58">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H58" t="s">
-        <v>56</v>
-      </c>
-      <c r="I58" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
       </c>
       <c r="P58" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -3910,40 +3818,34 @@
         <v>2020</v>
       </c>
       <c r="B59">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
         <v>49</v>
       </c>
       <c r="G59" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="H59" t="s">
-        <v>57</v>
-      </c>
-      <c r="I59" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="J59" t="s">
-        <v>83</v>
-      </c>
-      <c r="K59">
-        <v>5</v>
+        <v>321</v>
       </c>
       <c r="N59">
         <v>2</v>
       </c>
       <c r="P59" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -3951,37 +3853,34 @@
         <v>2020</v>
       </c>
       <c r="B60">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F60" t="s">
         <v>49</v>
       </c>
       <c r="G60" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H60" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J60" t="s">
-        <v>83</v>
-      </c>
-      <c r="K60">
-        <v>5</v>
+        <v>321</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -3989,37 +3888,31 @@
         <v>2020</v>
       </c>
       <c r="B61">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
         <v>49</v>
       </c>
       <c r="G61" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H61" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J61" t="s">
-        <v>83</v>
-      </c>
-      <c r="K61">
-        <v>5</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -4027,37 +3920,31 @@
         <v>2020</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="F62" t="s">
         <v>49</v>
       </c>
       <c r="G62" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J62" t="s">
-        <v>83</v>
-      </c>
-      <c r="K62">
-        <v>5</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="P62" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -4065,31 +3952,34 @@
         <v>2020</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F63" t="s">
         <v>49</v>
       </c>
       <c r="G63" t="s">
-        <v>66</v>
-      </c>
-      <c r="H63" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="I63" t="s">
+        <v>465</v>
       </c>
       <c r="J63" t="s">
-        <v>84</v>
+        <v>288</v>
+      </c>
+      <c r="O63" t="s">
+        <v>293</v>
       </c>
       <c r="P63" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -4097,34 +3987,34 @@
         <v>2020</v>
       </c>
       <c r="B64">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s">
-        <v>61</v>
-      </c>
-      <c r="H64" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="I64" t="s">
+        <v>467</v>
       </c>
       <c r="J64" t="s">
-        <v>10</v>
-      </c>
-      <c r="L64">
-        <v>1000</v>
+        <v>288</v>
+      </c>
+      <c r="O64" t="s">
+        <v>293</v>
       </c>
       <c r="P64" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -4132,34 +4022,34 @@
         <v>2020</v>
       </c>
       <c r="B65">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s">
-        <v>61</v>
-      </c>
-      <c r="H65" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="I65" t="s">
+        <v>466</v>
       </c>
       <c r="J65" t="s">
-        <v>10</v>
-      </c>
-      <c r="L65">
-        <v>1000</v>
+        <v>288</v>
+      </c>
+      <c r="O65" t="s">
+        <v>293</v>
       </c>
       <c r="P65" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -4167,37 +4057,34 @@
         <v>2020</v>
       </c>
       <c r="B66">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
         <v>49</v>
       </c>
       <c r="G66" t="s">
-        <v>128</v>
-      </c>
-      <c r="H66" t="s">
-        <v>128</v>
+        <v>57</v>
+      </c>
+      <c r="I66" t="s">
+        <v>468</v>
       </c>
       <c r="J66" t="s">
-        <v>83</v>
-      </c>
-      <c r="K66">
-        <v>5</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
+        <v>288</v>
+      </c>
+      <c r="O66" t="s">
+        <v>293</v>
       </c>
       <c r="P66" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -4205,13 +4092,13 @@
         <v>2020</v>
       </c>
       <c r="B67">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D67" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="E67" t="s">
         <v>45</v>
@@ -4220,19 +4107,19 @@
         <v>52</v>
       </c>
       <c r="G67" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="H67" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="J67" t="s">
-        <v>11</v>
-      </c>
-      <c r="M67">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="L67">
+        <v>800</v>
       </c>
       <c r="P67" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4240,16 +4127,16 @@
         <v>2020</v>
       </c>
       <c r="B68">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
         <v>52</v>
@@ -4264,10 +4151,10 @@
         <v>10</v>
       </c>
       <c r="L68">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="P68" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4275,40 +4162,34 @@
         <v>2020</v>
       </c>
       <c r="B69">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G69" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H69" t="s">
-        <v>56</v>
-      </c>
-      <c r="I69" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="J69" t="s">
-        <v>80</v>
-      </c>
-      <c r="M69">
-        <v>3</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="L69">
+        <v>300</v>
       </c>
       <c r="P69" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -4316,40 +4197,34 @@
         <v>2020</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="H70" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J70" t="s">
-        <v>80</v>
-      </c>
-      <c r="M70">
-        <v>5</v>
-      </c>
-      <c r="N70">
-        <v>3</v>
-      </c>
-      <c r="O70" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="L70">
+        <v>200</v>
       </c>
       <c r="P70" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4357,37 +4232,37 @@
         <v>2020</v>
       </c>
       <c r="B71">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G71" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="H71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J71" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="M71">
-        <v>5</v>
-      </c>
-      <c r="O71" t="s">
-        <v>141</v>
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4395,34 +4270,37 @@
         <v>2020</v>
       </c>
       <c r="B72">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="H72" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J72" t="s">
-        <v>11</v>
-      </c>
-      <c r="M72">
-        <v>19</v>
+        <v>83</v>
+      </c>
+      <c r="K72">
+        <v>5</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -4430,34 +4308,28 @@
         <v>2020</v>
       </c>
       <c r="B73">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G73" t="s">
-        <v>61</v>
-      </c>
-      <c r="H73" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="J73" t="s">
-        <v>10</v>
-      </c>
-      <c r="L73">
-        <v>600</v>
+        <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -4465,34 +4337,28 @@
         <v>2020</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D74" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="F74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G74" t="s">
-        <v>61</v>
-      </c>
-      <c r="H74" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="J74" t="s">
-        <v>10</v>
-      </c>
-      <c r="L74">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="P74" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -4500,40 +4366,28 @@
         <v>2020</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D75" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="E75" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
         <v>49</v>
       </c>
       <c r="G75" t="s">
-        <v>57</v>
-      </c>
-      <c r="H75" t="s">
-        <v>57</v>
-      </c>
-      <c r="I75" t="s">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="J75" t="s">
-        <v>83</v>
-      </c>
-      <c r="K75">
-        <v>10</v>
-      </c>
-      <c r="N75">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="P75" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -4541,34 +4395,28 @@
         <v>2020</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D76" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G76" t="s">
-        <v>117</v>
-      </c>
-      <c r="H76" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="J76" t="s">
-        <v>11</v>
-      </c>
-      <c r="M76">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -4576,34 +4424,28 @@
         <v>2020</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s">
-        <v>117</v>
-      </c>
-      <c r="H77" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="J77" t="s">
-        <v>11</v>
-      </c>
-      <c r="M77">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -4611,40 +4453,28 @@
         <v>2020</v>
       </c>
       <c r="B78">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
         <v>49</v>
       </c>
       <c r="G78" t="s">
-        <v>57</v>
-      </c>
-      <c r="H78" t="s">
-        <v>57</v>
-      </c>
-      <c r="I78" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="J78" t="s">
-        <v>80</v>
-      </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -4652,34 +4482,28 @@
         <v>2020</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s">
         <v>49</v>
       </c>
       <c r="G79" t="s">
-        <v>129</v>
-      </c>
-      <c r="H79" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="J79" t="s">
-        <v>10</v>
-      </c>
-      <c r="L79">
-        <v>20000</v>
+        <v>92</v>
       </c>
       <c r="P79" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -4687,34 +4511,28 @@
         <v>2020</v>
       </c>
       <c r="B80">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G80" t="s">
-        <v>117</v>
-      </c>
-      <c r="H80" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="J80" t="s">
-        <v>11</v>
-      </c>
-      <c r="M80">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -4722,34 +4540,28 @@
         <v>2020</v>
       </c>
       <c r="B81">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D81" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G81" t="s">
-        <v>117</v>
-      </c>
-      <c r="H81" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="J81" t="s">
-        <v>11</v>
-      </c>
-      <c r="M81">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -4757,34 +4569,2032 @@
         <v>2020</v>
       </c>
       <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" t="s">
+        <v>205</v>
+      </c>
+      <c r="J82" t="s">
+        <v>92</v>
+      </c>
+      <c r="P82" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2020</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" t="s">
+        <v>49</v>
+      </c>
+      <c r="G83" t="s">
+        <v>205</v>
+      </c>
+      <c r="J83" t="s">
+        <v>92</v>
+      </c>
+      <c r="P83" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2020</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" t="s">
+        <v>49</v>
+      </c>
+      <c r="G84" t="s">
+        <v>123</v>
+      </c>
+      <c r="H84" t="s">
+        <v>132</v>
+      </c>
+      <c r="J84" t="s">
+        <v>288</v>
+      </c>
+      <c r="P84" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2020</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" t="s">
+        <v>49</v>
+      </c>
+      <c r="G85" t="s">
+        <v>123</v>
+      </c>
+      <c r="H85" t="s">
+        <v>132</v>
+      </c>
+      <c r="J85" t="s">
+        <v>288</v>
+      </c>
+      <c r="P85" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2020</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F86" t="s">
+        <v>49</v>
+      </c>
+      <c r="G86" t="s">
+        <v>205</v>
+      </c>
+      <c r="J86" t="s">
+        <v>92</v>
+      </c>
+      <c r="P86" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2020</v>
+      </c>
+      <c r="B87">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87" t="s">
+        <v>61</v>
+      </c>
+      <c r="H87" t="s">
+        <v>61</v>
+      </c>
+      <c r="J87" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87">
+        <v>1000</v>
+      </c>
+      <c r="P87" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2020</v>
+      </c>
+      <c r="B88">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" t="s">
+        <v>40</v>
+      </c>
+      <c r="F88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88" t="s">
+        <v>61</v>
+      </c>
+      <c r="H88" t="s">
+        <v>61</v>
+      </c>
+      <c r="J88" t="s">
+        <v>10</v>
+      </c>
+      <c r="L88">
+        <v>300</v>
+      </c>
+      <c r="P88" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2020</v>
+      </c>
+      <c r="B89">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" t="s">
+        <v>51</v>
+      </c>
+      <c r="G89" t="s">
+        <v>61</v>
+      </c>
+      <c r="H89" t="s">
+        <v>61</v>
+      </c>
+      <c r="J89" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89">
+        <v>1000</v>
+      </c>
+      <c r="P89" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2020</v>
+      </c>
+      <c r="B90">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G90" t="s">
+        <v>117</v>
+      </c>
+      <c r="H90" t="s">
+        <v>53</v>
+      </c>
+      <c r="J90" t="s">
+        <v>11</v>
+      </c>
+      <c r="M90">
+        <v>5</v>
+      </c>
+      <c r="P90" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2020</v>
+      </c>
+      <c r="B91">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" t="s">
+        <v>45</v>
+      </c>
+      <c r="F91" t="s">
+        <v>48</v>
+      </c>
+      <c r="G91" t="s">
+        <v>117</v>
+      </c>
+      <c r="H91" t="s">
+        <v>53</v>
+      </c>
+      <c r="J91" t="s">
+        <v>11</v>
+      </c>
+      <c r="M91">
+        <v>5</v>
+      </c>
+      <c r="P91" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2020</v>
+      </c>
+      <c r="B92">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" t="s">
+        <v>49</v>
+      </c>
+      <c r="G92" t="s">
+        <v>125</v>
+      </c>
+      <c r="H92" t="s">
+        <v>125</v>
+      </c>
+      <c r="J92" t="s">
+        <v>85</v>
+      </c>
+      <c r="K92">
+        <v>5</v>
+      </c>
+      <c r="O92" t="s">
+        <v>140</v>
+      </c>
+      <c r="P92" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2020</v>
+      </c>
+      <c r="B93">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" t="s">
+        <v>49</v>
+      </c>
+      <c r="G93" t="s">
+        <v>125</v>
+      </c>
+      <c r="H93" t="s">
+        <v>125</v>
+      </c>
+      <c r="J93" t="s">
+        <v>85</v>
+      </c>
+      <c r="K93">
+        <v>5</v>
+      </c>
+      <c r="O93" t="s">
+        <v>140</v>
+      </c>
+      <c r="P93" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2020</v>
+      </c>
+      <c r="B94">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>49</v>
+      </c>
+      <c r="G94" t="s">
+        <v>126</v>
+      </c>
+      <c r="H94" t="s">
+        <v>126</v>
+      </c>
+      <c r="J94" t="s">
+        <v>83</v>
+      </c>
+      <c r="K94">
+        <v>5</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="P94" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2020</v>
+      </c>
+      <c r="B95">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" t="s">
+        <v>49</v>
+      </c>
+      <c r="G95" t="s">
+        <v>126</v>
+      </c>
+      <c r="H95" t="s">
+        <v>126</v>
+      </c>
+      <c r="J95" t="s">
+        <v>83</v>
+      </c>
+      <c r="K95">
+        <v>5</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="P95" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2020</v>
+      </c>
+      <c r="B96">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96" t="s">
+        <v>49</v>
+      </c>
+      <c r="G96" t="s">
+        <v>126</v>
+      </c>
+      <c r="J96" t="s">
+        <v>288</v>
+      </c>
+      <c r="P96" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2020</v>
+      </c>
+      <c r="B97">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>104</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" t="s">
+        <v>48</v>
+      </c>
+      <c r="G97" t="s">
+        <v>126</v>
+      </c>
+      <c r="J97" t="s">
+        <v>288</v>
+      </c>
+      <c r="P97" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2020</v>
+      </c>
+      <c r="B98">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" t="s">
+        <v>48</v>
+      </c>
+      <c r="G98" t="s">
+        <v>126</v>
+      </c>
+      <c r="J98" t="s">
+        <v>288</v>
+      </c>
+      <c r="P98" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2020</v>
+      </c>
+      <c r="B99">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" t="s">
+        <v>46</v>
+      </c>
+      <c r="F99" t="s">
+        <v>49</v>
+      </c>
+      <c r="G99" t="s">
+        <v>123</v>
+      </c>
+      <c r="H99" t="s">
+        <v>132</v>
+      </c>
+      <c r="J99" t="s">
+        <v>288</v>
+      </c>
+      <c r="P99" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2020</v>
+      </c>
+      <c r="B100">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" t="s">
+        <v>46</v>
+      </c>
+      <c r="F100" t="s">
+        <v>49</v>
+      </c>
+      <c r="G100" t="s">
+        <v>123</v>
+      </c>
+      <c r="H100" t="s">
+        <v>132</v>
+      </c>
+      <c r="J100" t="s">
+        <v>288</v>
+      </c>
+      <c r="P100" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2020</v>
+      </c>
+      <c r="B101">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" t="s">
+        <v>45</v>
+      </c>
+      <c r="F101" t="s">
+        <v>48</v>
+      </c>
+      <c r="G101" t="s">
+        <v>126</v>
+      </c>
+      <c r="J101" t="s">
+        <v>288</v>
+      </c>
+      <c r="P101" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2020</v>
+      </c>
+      <c r="B102">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102" t="s">
+        <v>49</v>
+      </c>
+      <c r="G102" t="s">
+        <v>57</v>
+      </c>
+      <c r="H102" t="s">
+        <v>57</v>
+      </c>
+      <c r="I102" t="s">
+        <v>37</v>
+      </c>
+      <c r="J102" t="s">
+        <v>83</v>
+      </c>
+      <c r="K102">
+        <v>10</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="P102" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2020</v>
+      </c>
+      <c r="B103">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" t="s">
+        <v>49</v>
+      </c>
+      <c r="G103" t="s">
+        <v>57</v>
+      </c>
+      <c r="H103" t="s">
+        <v>57</v>
+      </c>
+      <c r="I103" t="s">
+        <v>33</v>
+      </c>
+      <c r="J103" t="s">
+        <v>83</v>
+      </c>
+      <c r="K103">
+        <v>5</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="P103" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2020</v>
+      </c>
+      <c r="B104">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" t="s">
+        <v>47</v>
+      </c>
+      <c r="F104" t="s">
+        <v>52</v>
+      </c>
+      <c r="G104" t="s">
+        <v>61</v>
+      </c>
+      <c r="H104" t="s">
+        <v>61</v>
+      </c>
+      <c r="J104" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104">
+        <v>200</v>
+      </c>
+      <c r="P104" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2020</v>
+      </c>
+      <c r="B105">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" t="s">
+        <v>46</v>
+      </c>
+      <c r="F105" t="s">
+        <v>50</v>
+      </c>
+      <c r="G105" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" t="s">
+        <v>288</v>
+      </c>
+      <c r="P105" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2020</v>
+      </c>
+      <c r="B106">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>106</v>
+      </c>
+      <c r="D106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106" t="s">
+        <v>50</v>
+      </c>
+      <c r="G106" t="s">
+        <v>57</v>
+      </c>
+      <c r="I106" t="s">
+        <v>28</v>
+      </c>
+      <c r="J106" t="s">
+        <v>288</v>
+      </c>
+      <c r="P106" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2020</v>
+      </c>
+      <c r="B107">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>106</v>
+      </c>
+      <c r="D107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>50</v>
+      </c>
+      <c r="G107" t="s">
+        <v>129</v>
+      </c>
+      <c r="H107" t="s">
+        <v>127</v>
+      </c>
+      <c r="J107" t="s">
+        <v>92</v>
+      </c>
+      <c r="P107" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2020</v>
+      </c>
+      <c r="B108">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" t="s">
+        <v>45</v>
+      </c>
+      <c r="F108" t="s">
+        <v>51</v>
+      </c>
+      <c r="G108" t="s">
+        <v>124</v>
+      </c>
+      <c r="H108" t="s">
+        <v>75</v>
+      </c>
+      <c r="J108" t="s">
+        <v>92</v>
+      </c>
+      <c r="P108" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2020</v>
+      </c>
+      <c r="B109">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>106</v>
+      </c>
+      <c r="D109" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" t="s">
+        <v>46</v>
+      </c>
+      <c r="F109" t="s">
+        <v>48</v>
+      </c>
+      <c r="G109" t="s">
+        <v>56</v>
+      </c>
+      <c r="H109" t="s">
+        <v>56</v>
+      </c>
+      <c r="I109" t="s">
+        <v>25</v>
+      </c>
+      <c r="J109" t="s">
+        <v>84</v>
+      </c>
+      <c r="P109" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2020</v>
+      </c>
+      <c r="B110">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>106</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" t="s">
+        <v>46</v>
+      </c>
+      <c r="F110" t="s">
+        <v>49</v>
+      </c>
+      <c r="G110" t="s">
+        <v>57</v>
+      </c>
+      <c r="H110" t="s">
+        <v>57</v>
+      </c>
+      <c r="I110" t="s">
+        <v>35</v>
+      </c>
+      <c r="J110" t="s">
+        <v>83</v>
+      </c>
+      <c r="K110">
+        <v>5</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="P110" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2020</v>
+      </c>
+      <c r="B111">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>106</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" t="s">
+        <v>46</v>
+      </c>
+      <c r="F111" t="s">
+        <v>49</v>
+      </c>
+      <c r="G111" t="s">
+        <v>128</v>
+      </c>
+      <c r="H111" t="s">
+        <v>128</v>
+      </c>
+      <c r="J111" t="s">
+        <v>83</v>
+      </c>
+      <c r="K111">
+        <v>5</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="P111" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2020</v>
+      </c>
+      <c r="B112">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>106</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" t="s">
+        <v>39</v>
+      </c>
+      <c r="F112" t="s">
+        <v>49</v>
+      </c>
+      <c r="G112" t="s">
+        <v>128</v>
+      </c>
+      <c r="H112" t="s">
+        <v>128</v>
+      </c>
+      <c r="J112" t="s">
+        <v>83</v>
+      </c>
+      <c r="K112">
+        <v>5</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="P112" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2020</v>
+      </c>
+      <c r="B113">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>106</v>
+      </c>
+      <c r="D113" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" t="s">
+        <v>114</v>
+      </c>
+      <c r="F113" t="s">
+        <v>49</v>
+      </c>
+      <c r="G113" t="s">
+        <v>320</v>
+      </c>
+      <c r="J113" t="s">
+        <v>288</v>
+      </c>
+      <c r="P113" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2020</v>
+      </c>
+      <c r="B114">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>106</v>
+      </c>
+      <c r="D114" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" t="s">
+        <v>114</v>
+      </c>
+      <c r="F114" t="s">
+        <v>49</v>
+      </c>
+      <c r="G114" t="s">
+        <v>128</v>
+      </c>
+      <c r="H114" t="s">
+        <v>128</v>
+      </c>
+      <c r="J114" t="s">
+        <v>83</v>
+      </c>
+      <c r="K114">
+        <v>5</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="P114" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2020</v>
+      </c>
+      <c r="B115">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>106</v>
+      </c>
+      <c r="D115" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" t="s">
+        <v>46</v>
+      </c>
+      <c r="F115" t="s">
+        <v>49</v>
+      </c>
+      <c r="G115" t="s">
+        <v>66</v>
+      </c>
+      <c r="H115" t="s">
+        <v>66</v>
+      </c>
+      <c r="J115" t="s">
+        <v>84</v>
+      </c>
+      <c r="P115" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2020</v>
+      </c>
+      <c r="B116">
+        <v>14</v>
+      </c>
+      <c r="C116" t="s">
+        <v>107</v>
+      </c>
+      <c r="D116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" t="s">
+        <v>46</v>
+      </c>
+      <c r="F116" t="s">
+        <v>52</v>
+      </c>
+      <c r="G116" t="s">
+        <v>61</v>
+      </c>
+      <c r="H116" t="s">
+        <v>61</v>
+      </c>
+      <c r="J116" t="s">
+        <v>10</v>
+      </c>
+      <c r="L116">
+        <v>1000</v>
+      </c>
+      <c r="P116" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2020</v>
+      </c>
+      <c r="B117">
+        <v>14</v>
+      </c>
+      <c r="C117" t="s">
+        <v>107</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" t="s">
+        <v>41</v>
+      </c>
+      <c r="F117" t="s">
+        <v>49</v>
+      </c>
+      <c r="G117" t="s">
+        <v>57</v>
+      </c>
+      <c r="I117" t="s">
+        <v>19</v>
+      </c>
+      <c r="J117" t="s">
+        <v>288</v>
+      </c>
+      <c r="O117" t="s">
+        <v>469</v>
+      </c>
+      <c r="P117" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2020</v>
+      </c>
+      <c r="B118">
+        <v>14</v>
+      </c>
+      <c r="C118" t="s">
+        <v>107</v>
+      </c>
+      <c r="D118" t="s">
+        <v>112</v>
+      </c>
+      <c r="E118" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118" t="s">
+        <v>52</v>
+      </c>
+      <c r="G118" t="s">
+        <v>61</v>
+      </c>
+      <c r="H118" t="s">
+        <v>61</v>
+      </c>
+      <c r="J118" t="s">
+        <v>10</v>
+      </c>
+      <c r="L118">
+        <v>1000</v>
+      </c>
+      <c r="P118" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2020</v>
+      </c>
+      <c r="B119">
+        <v>14</v>
+      </c>
+      <c r="C119" t="s">
+        <v>107</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" t="s">
+        <v>39</v>
+      </c>
+      <c r="F119" t="s">
+        <v>49</v>
+      </c>
+      <c r="G119" t="s">
+        <v>128</v>
+      </c>
+      <c r="H119" t="s">
+        <v>128</v>
+      </c>
+      <c r="J119" t="s">
+        <v>83</v>
+      </c>
+      <c r="K119">
+        <v>5</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="P119" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2020</v>
+      </c>
+      <c r="B120">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>108</v>
+      </c>
+      <c r="D120" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" t="s">
+        <v>45</v>
+      </c>
+      <c r="F120" t="s">
+        <v>52</v>
+      </c>
+      <c r="G120" t="s">
+        <v>117</v>
+      </c>
+      <c r="H120" t="s">
+        <v>117</v>
+      </c>
+      <c r="J120" t="s">
+        <v>11</v>
+      </c>
+      <c r="M120">
+        <v>19</v>
+      </c>
+      <c r="P120" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2020</v>
+      </c>
+      <c r="B121">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>108</v>
+      </c>
+      <c r="D121" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" t="s">
+        <v>41</v>
+      </c>
+      <c r="F121" t="s">
+        <v>52</v>
+      </c>
+      <c r="G121" t="s">
+        <v>61</v>
+      </c>
+      <c r="H121" t="s">
+        <v>61</v>
+      </c>
+      <c r="J121" t="s">
+        <v>10</v>
+      </c>
+      <c r="L121">
+        <v>1000</v>
+      </c>
+      <c r="P121" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2020</v>
+      </c>
+      <c r="B122">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122" t="s">
+        <v>112</v>
+      </c>
+      <c r="E122" t="s">
+        <v>42</v>
+      </c>
+      <c r="F122" t="s">
+        <v>48</v>
+      </c>
+      <c r="G122" t="s">
+        <v>56</v>
+      </c>
+      <c r="H122" t="s">
+        <v>56</v>
+      </c>
+      <c r="I122" t="s">
+        <v>23</v>
+      </c>
+      <c r="J122" t="s">
+        <v>80</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="P122" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2020</v>
+      </c>
+      <c r="B123">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>108</v>
+      </c>
+      <c r="D123" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" t="s">
+        <v>42</v>
+      </c>
+      <c r="F123" t="s">
+        <v>48</v>
+      </c>
+      <c r="G123" t="s">
+        <v>115</v>
+      </c>
+      <c r="H123" t="s">
+        <v>58</v>
+      </c>
+      <c r="J123" t="s">
+        <v>80</v>
+      </c>
+      <c r="M123">
+        <v>5</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>141</v>
+      </c>
+      <c r="P123" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2020</v>
+      </c>
+      <c r="B124">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>108</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" t="s">
+        <v>46</v>
+      </c>
+      <c r="F124" t="s">
+        <v>48</v>
+      </c>
+      <c r="G124" t="s">
+        <v>115</v>
+      </c>
+      <c r="J124" t="s">
+        <v>288</v>
+      </c>
+      <c r="P124" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2020</v>
+      </c>
+      <c r="B125">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>108</v>
+      </c>
+      <c r="D125" t="s">
+        <v>37</v>
+      </c>
+      <c r="E125" t="s">
+        <v>45</v>
+      </c>
+      <c r="F125" t="s">
+        <v>48</v>
+      </c>
+      <c r="G125" t="s">
+        <v>115</v>
+      </c>
+      <c r="H125" t="s">
+        <v>58</v>
+      </c>
+      <c r="J125" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="O125" t="s">
+        <v>141</v>
+      </c>
+      <c r="P125" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2020</v>
+      </c>
+      <c r="B126">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>108</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" t="s">
+        <v>39</v>
+      </c>
+      <c r="F126" t="s">
+        <v>49</v>
+      </c>
+      <c r="G126" t="s">
+        <v>54</v>
+      </c>
+      <c r="J126" t="s">
+        <v>288</v>
+      </c>
+      <c r="P126" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2020</v>
+      </c>
+      <c r="B127">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>108</v>
+      </c>
+      <c r="D127" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" t="s">
+        <v>49</v>
+      </c>
+      <c r="G127" t="s">
+        <v>124</v>
+      </c>
+      <c r="H127" t="s">
+        <v>75</v>
+      </c>
+      <c r="J127" t="s">
+        <v>288</v>
+      </c>
+      <c r="P127" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2020</v>
+      </c>
+      <c r="B128">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>108</v>
+      </c>
+      <c r="D128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" t="s">
+        <v>114</v>
+      </c>
+      <c r="F128" t="s">
+        <v>48</v>
+      </c>
+      <c r="G128" t="s">
+        <v>69</v>
+      </c>
+      <c r="H128" t="s">
+        <v>69</v>
+      </c>
+      <c r="J128" t="s">
+        <v>11</v>
+      </c>
+      <c r="M128">
+        <v>19</v>
+      </c>
+      <c r="P128" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2020</v>
+      </c>
+      <c r="B129">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
+        <v>109</v>
+      </c>
+      <c r="D129" t="s">
+        <v>30</v>
+      </c>
+      <c r="E129" t="s">
+        <v>44</v>
+      </c>
+      <c r="F129" t="s">
+        <v>50</v>
+      </c>
+      <c r="G129" t="s">
+        <v>61</v>
+      </c>
+      <c r="H129" t="s">
+        <v>61</v>
+      </c>
+      <c r="J129" t="s">
+        <v>10</v>
+      </c>
+      <c r="L129">
+        <v>600</v>
+      </c>
+      <c r="P129" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2020</v>
+      </c>
+      <c r="B130">
+        <v>16</v>
+      </c>
+      <c r="C130" t="s">
+        <v>109</v>
+      </c>
+      <c r="D130" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" t="s">
+        <v>47</v>
+      </c>
+      <c r="F130" t="s">
+        <v>50</v>
+      </c>
+      <c r="G130" t="s">
+        <v>61</v>
+      </c>
+      <c r="H130" t="s">
+        <v>61</v>
+      </c>
+      <c r="J130" t="s">
+        <v>10</v>
+      </c>
+      <c r="L130">
+        <v>200</v>
+      </c>
+      <c r="P130" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2020</v>
+      </c>
+      <c r="B131">
+        <v>16</v>
+      </c>
+      <c r="C131" t="s">
+        <v>109</v>
+      </c>
+      <c r="D131" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" t="s">
+        <v>114</v>
+      </c>
+      <c r="F131" t="s">
+        <v>49</v>
+      </c>
+      <c r="G131" t="s">
+        <v>57</v>
+      </c>
+      <c r="H131" t="s">
+        <v>57</v>
+      </c>
+      <c r="I131" t="s">
+        <v>28</v>
+      </c>
+      <c r="J131" t="s">
+        <v>83</v>
+      </c>
+      <c r="K131">
+        <v>10</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="P131" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>2020</v>
+      </c>
+      <c r="B132">
+        <v>17</v>
+      </c>
+      <c r="C132" t="s">
+        <v>110</v>
+      </c>
+      <c r="D132" t="s">
+        <v>113</v>
+      </c>
+      <c r="E132" t="s">
+        <v>39</v>
+      </c>
+      <c r="F132" t="s">
+        <v>51</v>
+      </c>
+      <c r="G132" t="s">
+        <v>117</v>
+      </c>
+      <c r="H132" t="s">
+        <v>117</v>
+      </c>
+      <c r="J132" t="s">
+        <v>11</v>
+      </c>
+      <c r="M132">
+        <v>19</v>
+      </c>
+      <c r="P132" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>2020</v>
+      </c>
+      <c r="B133">
+        <v>17</v>
+      </c>
+      <c r="C133" t="s">
+        <v>110</v>
+      </c>
+      <c r="D133" t="s">
+        <v>35</v>
+      </c>
+      <c r="E133" t="s">
+        <v>42</v>
+      </c>
+      <c r="F133" t="s">
+        <v>48</v>
+      </c>
+      <c r="G133" t="s">
+        <v>117</v>
+      </c>
+      <c r="H133" t="s">
+        <v>117</v>
+      </c>
+      <c r="J133" t="s">
+        <v>11</v>
+      </c>
+      <c r="M133">
+        <v>19</v>
+      </c>
+      <c r="P133" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>2020</v>
+      </c>
+      <c r="B134">
+        <v>17</v>
+      </c>
+      <c r="C134" t="s">
+        <v>110</v>
+      </c>
+      <c r="D134" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" t="s">
+        <v>41</v>
+      </c>
+      <c r="F134" t="s">
+        <v>49</v>
+      </c>
+      <c r="G134" t="s">
+        <v>57</v>
+      </c>
+      <c r="H134" t="s">
+        <v>57</v>
+      </c>
+      <c r="I134" t="s">
+        <v>137</v>
+      </c>
+      <c r="J134" t="s">
+        <v>80</v>
+      </c>
+      <c r="M134">
+        <v>3</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="P134" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2020</v>
+      </c>
+      <c r="B135">
+        <v>17</v>
+      </c>
+      <c r="C135" t="s">
+        <v>110</v>
+      </c>
+      <c r="D135" t="s">
+        <v>37</v>
+      </c>
+      <c r="E135" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" t="s">
+        <v>49</v>
+      </c>
+      <c r="G135" t="s">
+        <v>129</v>
+      </c>
+      <c r="H135" t="s">
+        <v>134</v>
+      </c>
+      <c r="J135" t="s">
+        <v>10</v>
+      </c>
+      <c r="L135">
+        <v>20000</v>
+      </c>
+      <c r="P135" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2020</v>
+      </c>
+      <c r="B136">
         <v>18</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C136" t="s">
         <v>14</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D136" t="s">
         <v>19</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E136" t="s">
         <v>39</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F136" t="s">
+        <v>52</v>
+      </c>
+      <c r="G136" t="s">
+        <v>117</v>
+      </c>
+      <c r="H136" t="s">
+        <v>117</v>
+      </c>
+      <c r="J136" t="s">
+        <v>11</v>
+      </c>
+      <c r="M136">
+        <v>19</v>
+      </c>
+      <c r="P136" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>2020</v>
+      </c>
+      <c r="B137">
+        <v>18</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" t="s">
+        <v>46</v>
+      </c>
+      <c r="F137" t="s">
+        <v>52</v>
+      </c>
+      <c r="G137" t="s">
+        <v>117</v>
+      </c>
+      <c r="H137" t="s">
+        <v>117</v>
+      </c>
+      <c r="J137" t="s">
+        <v>11</v>
+      </c>
+      <c r="M137">
+        <v>19</v>
+      </c>
+      <c r="P137" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2020</v>
+      </c>
+      <c r="B138">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" t="s">
+        <v>39</v>
+      </c>
+      <c r="F138" t="s">
         <v>50</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G138" t="s">
         <v>130</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H138" t="s">
         <v>135</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J138" t="s">
         <v>84</v>
       </c>
-      <c r="P82" t="s">
+      <c r="P138" t="s">
         <v>433</v>
       </c>
     </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2020</v>
+      </c>
+      <c r="B139">
+        <v>18</v>
+      </c>
+      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" t="s">
+        <v>111</v>
+      </c>
+      <c r="E139" t="s">
+        <v>45</v>
+      </c>
+      <c r="F139" t="s">
+        <v>48</v>
+      </c>
+      <c r="G139" t="s">
+        <v>54</v>
+      </c>
+      <c r="J139" t="s">
+        <v>288</v>
+      </c>
+      <c r="P139" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2020</v>
+      </c>
+      <c r="B140">
+        <v>18</v>
+      </c>
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s">
+        <v>112</v>
+      </c>
+      <c r="E140" t="s">
+        <v>42</v>
+      </c>
+      <c r="F140" t="s">
+        <v>49</v>
+      </c>
+      <c r="G140" t="s">
+        <v>63</v>
+      </c>
+      <c r="J140" t="s">
+        <v>288</v>
+      </c>
+      <c r="P140" t="s">
+        <v>433</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4794,7 +6604,7 @@
   <dimension ref="A1:P122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O125" sqref="O125"/>
     </sheetView>
   </sheetViews>
@@ -9267,7 +11077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A141" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -22236,8 +24046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
